--- a/Dokumenter/logg.xlsx
+++ b/Dokumenter/logg.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fresta1\Documents\GitHub\Leaf-Leaves\Dokumenter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Dato</t>
   </si>
@@ -46,6 +51,9 @@
   </si>
   <si>
     <t>GitHub er fortsatt teit. Den commiter hele tiden fordi Word autolagrer. Buggy… Prøve sourcetree?</t>
+  </si>
+  <si>
+    <t>Endelig fungerer GitHub med Unity, måtte legge til en .gitignore og gjøre meta-filer synlige i Unity før Unity-prosjektet ble lagt til i en Git repository.</t>
   </si>
 </sst>
 </file>
@@ -164,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -179,6 +187,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,6 +197,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -236,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,7 +283,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,7 +495,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,9 +561,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
+    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>41702</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
